--- a/biology/Botanique/Haeguk/Haeguk.xlsx
+++ b/biology/Botanique/Haeguk/Haeguk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aster spathulifolius
-Aster spathulifolius (en coréen : 해국]/Haeguk, aussi connu en anglais sous le nom de Seashore spatulate aster[1]) est une espèce de plantes à fleurs de la famille des Asteraceae.
+Aster spathulifolius (en coréen : 해국]/Haeguk, aussi connu en anglais sous le nom de Seashore spatulate aster) est une espèce de plantes à fleurs de la famille des Asteraceae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un chrysanthème coréen poussant en bord de mer. En raison de sa petite taille et de ses feuilles épaisses, l'Haeguk résiste au vent et au froid. Il produit des fleurs violettes quand il est situé dans des endroits ensoleillés entre les rochers, de juillet à novembre. Il ne pousse qu'en Corée et au Japon. Il est originaire[réf. souhaitée] d'Ulleungdo, île coréenne, et de Dokdo (ou Takeshima) en mer du Japon. En automne, les Haeguks sont en pleine floraison, colorant Dokdo en violet.
 </t>
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aster spathulifolius Maxim., 1871[2].
-Aster spathulifolius a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Aster spathulifolius Maxim., 1871.
+Aster spathulifolius a pour synonymes :
 Aster chusanensis Y.S.Lim, Hyun, Y.D.Kim &amp; H.C.Shin
 Aster feddei H.Lév. &amp; Vaniot
 Aster oharae Nakai
